--- a/洛阳4日游玩计划（待完善）.xlsx
+++ b/洛阳4日游玩计划（待完善）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,16 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
-  <si>
-    <t>11:30-18:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>9:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,32 +34,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>半天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关林</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>40</t>
     </r>
     <r>
@@ -87,19 +57,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>一天</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>免票</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,19 +70,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>龙门石窟</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>洛阳老城历史文化古城街区</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,79 +83,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>洛阳博物馆</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>40-19:15</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>到洛阳龙门国际</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,60 +179,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>丽景门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>洛阳老街</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开放时间夏季</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 08:00—19:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>登城楼</t>
     </r>
     <r>
@@ -388,17 +205,6 @@
   <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>洛阳古墓博物馆，其面积之大、风格之别致、收集古墓年代之久、类型及数量之多均属世界首位，是中国一大绝观。因此，洛阳古墓博物馆又是我国目前最大的古墓博物馆之一，同时也成为目前世界上第一座古墓博物馆</t>
-    </r>
   </si>
   <si>
     <r>
@@ -707,41 +513,6 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开放时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 7:30-18:30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>洛阳古墓博物馆</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -816,13 +587,434 @@
       <t>开始</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳博物馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳古墓博物馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳市老城区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳市洛龙区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星期一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半天白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙门石窟、白园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星期二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳南湖音乐喷泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲最大的音乐喷泉，每周2/4/6 晚上20:00开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洛阳古墓博物馆，其面积之大、风格之别致、收集古墓年代之久、类型及数量之多均属世界首位，是中国一大绝观。因此，洛阳古墓博物馆又是我国目前最大的古墓博物馆之一，同时也成为目前世界上第一座古墓博物馆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳老街</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开放时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 7:30-18:30(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周一闭馆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开放时间夏季</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 08:00—19:00(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周一闭馆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星期天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30-18:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>00-19:30</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星期三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽景门 洛阳老街</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,11 +1071,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -954,7 +1141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -977,18 +1164,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1000,19 +1260,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,6 +1378,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1040,7 +1465,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1075,7 +1500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1107,10 +1532,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1142,7 +1566,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1318,180 +1741,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="48.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="15.75">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:23" ht="28.5">
+      <c r="A3" s="47"/>
+      <c r="B3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="36"/>
+    </row>
+    <row r="5" spans="1:23" ht="54.75">
+      <c r="A5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="27.75">
+      <c r="A6" s="48"/>
+      <c r="B6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="47"/>
+      <c r="B7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="30"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="1:23" ht="54.75">
+      <c r="A9" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="F9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="18"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="10" spans="1:23">
+      <c r="A10" s="48"/>
+      <c r="B10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="47"/>
+      <c r="B11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="30"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="1:23" ht="67.5">
+      <c r="A13" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="83.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="95.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="14" spans="1:23">
+      <c r="A14" s="47"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" display="https://baike.baidu.com/item/%E6%B4%9B%E9%98%B3%E5%8D%97%E6%B9%96%E9%9F%B3%E4%B9%90%E5%96%B7%E6%B3%89"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/洛阳4日游玩计划（待完善）.xlsx
+++ b/洛阳4日游玩计划（待完善）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$C$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>日期</t>
   </si>
@@ -309,18 +309,16 @@
   <si>
     <t>2.5km</t>
   </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,19 +331,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -392,158 +390,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,198 +405,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -849,253 +516,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1144,9 +569,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,9 +582,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1202,9 +621,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,24 +643,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1256,59 +663,89 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1596,14 +1033,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A13"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1619,7 +1054,7 @@
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:8">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1645,8 +1080,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:8">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1665,126 +1100,126 @@
       </c>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="57"/>
+      <c r="B3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:8">
-      <c r="A4" s="26"/>
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:22" ht="27">
+      <c r="A4" s="57"/>
+      <c r="B4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="28"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="14" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" ht="27" spans="1:8">
-      <c r="A7" s="26"/>
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="1:22" ht="27">
+      <c r="A7" s="57"/>
+      <c r="B7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="41"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43" t="s">
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="57"/>
+      <c r="B8" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="16" t="s">
@@ -1793,69 +1228,69 @@
       <c r="G8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" ht="27" spans="1:8">
-      <c r="A9" s="40"/>
-      <c r="B9" s="21" t="s">
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:22" ht="27">
+      <c r="A9" s="58"/>
+      <c r="B9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="29"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-    </row>
-    <row r="11" ht="67.5" spans="1:8">
-      <c r="A11" s="51" t="s">
+    <row r="10" spans="1:22">
+      <c r="A10" s="27"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+    </row>
+    <row r="11" spans="1:22" ht="67.5">
+      <c r="A11" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="43" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="67.5" spans="1:8">
-      <c r="A12" s="54"/>
-      <c r="B12" s="43" t="s">
+    <row r="12" spans="1:22" ht="67.5">
+      <c r="A12" s="57"/>
+      <c r="B12" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -1864,7 +1299,7 @@
       <c r="D12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="16" t="s">
@@ -1873,13 +1308,13 @@
       <c r="G12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57" t="s">
+    <row r="13" spans="1:22">
+      <c r="A13" s="58"/>
+      <c r="B13" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -1890,49 +1325,49 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="29"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-    </row>
-    <row r="15" ht="54" spans="1:8">
-      <c r="A15" s="51" t="s">
+    <row r="14" spans="1:22">
+      <c r="A14" s="27"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+    </row>
+    <row r="15" spans="1:22" ht="54">
+      <c r="A15" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="54"/>
-      <c r="B16" s="59" t="s">
+    <row r="16" spans="1:22">
+      <c r="A16" s="57"/>
+      <c r="B16" s="53" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -1941,14 +1376,14 @@
       <c r="D16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="44"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="16"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1958,33 +1393,36 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="1:4">
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="22"/>
+    <row r="20" spans="1:4">
+      <c r="B20" s="21"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="1:4">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="1:4">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="1:4">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="1:4">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="1:4">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="1:4">
       <c r="D26" s="3"/>
     </row>
   </sheetData>
@@ -1994,8 +1432,8 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A15:A17"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/洛阳4日游玩计划（待完善）.xlsx
+++ b/洛阳4日游玩计划（待完善）.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wong\code\test\Travel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E7B269-8CA4-4C43-B330-F7951CFE78B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>日期</t>
   </si>
@@ -313,12 +319,16 @@
     <t>t</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,86 +688,26 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -792,7 +742,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,9 +774,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -858,6 +826,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1033,15 +1019,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
@@ -1054,7 +1040,7 @@
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1086,7 @@
       </c>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
       <c r="B3" s="20" t="s">
         <v>13</v>
@@ -1124,7 +1110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="27">
+    <row r="4" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
       <c r="B4" s="20" t="s">
         <v>19</v>
@@ -1144,7 +1130,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="28"/>
       <c r="C5" s="15"/>
@@ -1168,7 +1154,7 @@
       <c r="U5" s="54"/>
       <c r="V5" s="54"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
         <v>23</v>
       </c>
@@ -1186,7 +1172,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:22" ht="27">
+    <row r="7" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
       <c r="B7" s="36" t="s">
         <v>26</v>
@@ -1208,7 +1194,7 @@
       </c>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
       <c r="B8" s="40" t="s">
         <v>31</v>
@@ -1230,7 +1216,7 @@
       </c>
       <c r="H8" s="42"/>
     </row>
-    <row r="9" spans="1:22" ht="27">
+    <row r="9" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" s="58"/>
       <c r="B9" s="20" t="s">
         <v>19</v>
@@ -1248,7 +1234,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="45"/>
       <c r="C10" s="46"/>
@@ -1262,7 +1248,7 @@
       <c r="K10" s="54"/>
       <c r="L10" s="54"/>
     </row>
-    <row r="11" spans="1:22" ht="67.5">
+    <row r="11" spans="1:22" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A11" s="56" t="s">
         <v>39</v>
       </c>
@@ -1288,7 +1274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="67.5">
+    <row r="12" spans="1:22" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="40" t="s">
         <v>46</v>
@@ -1312,7 +1298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="58"/>
       <c r="B13" s="51" t="s">
         <v>19</v>
@@ -1325,7 +1311,7 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="45"/>
       <c r="C14" s="46"/>
@@ -1339,7 +1325,7 @@
       <c r="K14" s="54"/>
       <c r="L14" s="54"/>
     </row>
-    <row r="15" spans="1:22" ht="54">
+    <row r="15" spans="1:22" ht="54" x14ac:dyDescent="0.2">
       <c r="A15" s="56" t="s">
         <v>53</v>
       </c>
@@ -1365,7 +1351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="53" t="s">
         <v>59</v>
@@ -1381,7 +1367,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="58"/>
       <c r="B17" s="51" t="s">
         <v>19</v>
@@ -1393,36 +1379,39 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="21"/>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D26" s="3"/>
     </row>
   </sheetData>
